--- a/backend-bulljs/uploads/s1.xlsx
+++ b/backend-bulljs/uploads/s1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>name</t>
   </si>
@@ -35,31 +35,28 @@
     <t>dateofbirth</t>
   </si>
   <si>
-    <t>mohan</t>
-  </si>
-  <si>
     <t>suu</t>
   </si>
   <si>
     <t>rev</t>
   </si>
   <si>
+    <t>1997/11/13</t>
+  </si>
+  <si>
+    <t>1996/11/13</t>
+  </si>
+  <si>
+    <t>r9@gmail.com</t>
+  </si>
+  <si>
+    <t>s9@gmail.com</t>
+  </si>
+  <si>
     <t>1998/11/13</t>
   </si>
   <si>
-    <t>1997/11/13</t>
-  </si>
-  <si>
-    <t>1996/11/13</t>
-  </si>
-  <si>
-    <t>r9@gmail.com</t>
-  </si>
-  <si>
-    <t>s9@gmail.com</t>
-  </si>
-  <si>
-    <t>m9@gmail.com</t>
+    <t>m2</t>
   </si>
 </sst>
 </file>
@@ -392,7 +389,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,41 +410,41 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
+      <c r="A2">
+        <v>1233456</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1" display="m9@gmail.com"/>
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B4" r:id="rId3"/>
   </hyperlinks>

--- a/backend-bulljs/uploads/s1.xlsx
+++ b/backend-bulljs/uploads/s1.xlsx
@@ -56,7 +56,7 @@
     <t>1998/11/13</t>
   </si>
   <si>
-    <t>m2</t>
+    <t>m2@gmal.com</t>
   </si>
 </sst>
 </file>
@@ -389,7 +389,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,7 +444,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="m9@gmail.com"/>
+    <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B4" r:id="rId3"/>
   </hyperlinks>
